--- a/二次函数检测卷/人员名单.xlsx
+++ b/二次函数检测卷/人员名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wgsy\出数学题\二次函数检测卷\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151D792-CB0A-46D5-9B07-782F1955C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5B069-89A4-4AAF-AE2C-8E0C098D86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,58 @@
   </si>
   <si>
     <t>qht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线与几何综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次函数与一元二次方程根的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定系数求二次函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次函数综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物抛物线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次函数与增长、利润问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线与简单几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线简单计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次函数最值问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2或3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,12 +152,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -118,8 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,362 +454,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
+      <c r="F25" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
